--- a/DataMinner/coinpullget.xlsx
+++ b/DataMinner/coinpullget.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15870" windowHeight="8370"/>
+    <workbookView windowWidth="15870" windowHeight="8370" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="binance" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,6 @@
     <sheet name="zb" sheetId="3" r:id="rId3"/>
     <sheet name="huobi" sheetId="4" r:id="rId4"/>
     <sheet name="okex" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -1196,12 +1195,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1210,10 +1209,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1224,16 +1224,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1247,6 +1247,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -1254,22 +1261,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1291,6 +1291,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -1299,32 +1307,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1355,7 +1347,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1370,7 +1362,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1382,7 +1398,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1394,43 +1410,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1448,13 +1440,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1466,37 +1488,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1508,31 +1512,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1550,7 +1530,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1564,10 +1556,27 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1590,10 +1599,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1604,21 +1611,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1664,148 +1656,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2135,8 +2127,8 @@
   <sheetPr/>
   <dimension ref="A1:C141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -7344,8 +7336,8 @@
   <sheetPr/>
   <dimension ref="A1:C187"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -9414,21 +9406,4 @@
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>